--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06039275575677094</v>
+        <v>0.05432601270742476</v>
       </c>
       <c r="D2">
-        <v>0.03356796789346972</v>
+        <v>0.08681744053941398</v>
       </c>
       <c r="E2">
-        <v>0.120291885901906</v>
+        <v>0.1960191637946296</v>
       </c>
       <c r="F2">
-        <v>0.04174022546543821</v>
+        <v>0.1373715580499015</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06039275575677094</v>
+        <v>0.05432601270742476</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6045745255125681</v>
+        <v>0.6188064255278101</v>
       </c>
       <c r="E3">
-        <v>0.4501580176354627</v>
+        <v>0.4328186307396327</v>
       </c>
       <c r="F3">
-        <v>0.8941319934123273</v>
+        <v>0.8666685082759344</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03356796789346972</v>
+        <v>0.08681744053941398</v>
       </c>
       <c r="C4">
-        <v>0.6045745255125681</v>
+        <v>0.6188064255278101</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2413912667970659</v>
+        <v>0.2964603087371764</v>
       </c>
       <c r="F4">
-        <v>0.5205676317773786</v>
+        <v>0.5500793610103263</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.120291885901906</v>
+        <v>0.1960191637946296</v>
       </c>
       <c r="C5">
-        <v>0.4501580176354627</v>
+        <v>0.4328186307396327</v>
       </c>
       <c r="D5">
-        <v>0.2413912667970659</v>
+        <v>0.2964603087371764</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4022402946617989</v>
+        <v>0.5168672950651949</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04174022546543821</v>
+        <v>0.1373715580499015</v>
       </c>
       <c r="C6">
-        <v>0.8941319934123273</v>
+        <v>0.8666685082759344</v>
       </c>
       <c r="D6">
-        <v>0.5205676317773786</v>
+        <v>0.5500793610103263</v>
       </c>
       <c r="E6">
-        <v>0.4022402946617989</v>
+        <v>0.5168672950651949</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.879393237308496</v>
+        <v>-2.032696614884332</v>
       </c>
       <c r="D2">
-        <v>-2.127262221506619</v>
+        <v>-1.792494279120127</v>
       </c>
       <c r="E2">
-        <v>-1.554471478532793</v>
+        <v>-1.333475365443387</v>
       </c>
       <c r="F2">
-        <v>-2.037922699294507</v>
+        <v>-1.541853417208297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.879393237308496</v>
+        <v>2.032696614884332</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5179474895862084</v>
+        <v>-0.5046727971642586</v>
       </c>
       <c r="E3">
-        <v>0.7553576728626856</v>
+        <v>0.7990242062687005</v>
       </c>
       <c r="F3">
-        <v>0.1331011526457456</v>
+        <v>0.1698651840618371</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.127262221506619</v>
+        <v>1.792494279120127</v>
       </c>
       <c r="C4">
-        <v>0.5179474895862084</v>
+        <v>0.5046727971642586</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.171999473736426</v>
+        <v>1.069451547175008</v>
       </c>
       <c r="F4">
-        <v>0.6426283863603158</v>
+        <v>0.6069776315826171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.554471478532793</v>
+        <v>1.333475365443387</v>
       </c>
       <c r="C5">
-        <v>-0.7553576728626856</v>
+        <v>-0.7990242062687005</v>
       </c>
       <c r="D5">
-        <v>-1.171999473736426</v>
+        <v>-1.069451547175008</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.8378745680777281</v>
+        <v>-0.6587894715330183</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.037922699294507</v>
+        <v>1.541853417208297</v>
       </c>
       <c r="C6">
-        <v>-0.1331011526457456</v>
+        <v>-0.1698651840618371</v>
       </c>
       <c r="D6">
-        <v>-0.6426283863603158</v>
+        <v>-0.6069776315826171</v>
       </c>
       <c r="E6">
-        <v>0.8378745680777281</v>
+        <v>0.6587894715330183</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05432601270742476</v>
+        <v>0.3388751461034145</v>
       </c>
       <c r="D2">
-        <v>0.08681744053941398</v>
+        <v>0.982297564673432</v>
       </c>
       <c r="E2">
-        <v>0.1960191637946296</v>
+        <v>0.7220511667820657</v>
       </c>
       <c r="F2">
-        <v>0.1373715580499015</v>
+        <v>0.3308609119500221</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05432601270742476</v>
+        <v>0.3388751461034145</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6188064255278101</v>
+        <v>0.2528426127519361</v>
       </c>
       <c r="E3">
-        <v>0.4328186307396327</v>
+        <v>0.2906107114914684</v>
       </c>
       <c r="F3">
-        <v>0.8666685082759344</v>
+        <v>0.5825410655136554</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08681744053941398</v>
+        <v>0.982297564673432</v>
       </c>
       <c r="C4">
-        <v>0.6188064255278101</v>
+        <v>0.2528426127519361</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2964603087371764</v>
+        <v>0.7452409894310703</v>
       </c>
       <c r="F4">
-        <v>0.5500793610103263</v>
+        <v>0.3430407971148171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1960191637946296</v>
+        <v>0.7220511667820657</v>
       </c>
       <c r="C5">
-        <v>0.4328186307396327</v>
+        <v>0.2906107114914684</v>
       </c>
       <c r="D5">
-        <v>0.2964603087371764</v>
+        <v>0.7452409894310703</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5168672950651949</v>
+        <v>0.3582952687069438</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1373715580499015</v>
+        <v>0.3308609119500221</v>
       </c>
       <c r="C6">
-        <v>0.8666685082759344</v>
+        <v>0.5825410655136554</v>
       </c>
       <c r="D6">
-        <v>0.5500793610103263</v>
+        <v>0.3430407971148171</v>
       </c>
       <c r="E6">
-        <v>0.5168672950651949</v>
+        <v>0.3582952687069438</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.032696614884332</v>
+        <v>0.9700439693216732</v>
       </c>
       <c r="D2">
-        <v>-1.792494279120127</v>
+        <v>0.02235234351990695</v>
       </c>
       <c r="E2">
-        <v>-1.333475365443387</v>
+        <v>-0.3586814045055944</v>
       </c>
       <c r="F2">
-        <v>-1.541853417208297</v>
+        <v>0.9864908289099221</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.032696614884332</v>
+        <v>-0.9700439693216732</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5046727971642586</v>
+        <v>-1.163211654731997</v>
       </c>
       <c r="E3">
-        <v>0.7990242062687005</v>
+        <v>-1.073491607381698</v>
       </c>
       <c r="F3">
-        <v>0.1698651840618371</v>
+        <v>0.5549805078135338</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.792494279120127</v>
+        <v>-0.02235234351990695</v>
       </c>
       <c r="C4">
-        <v>0.5046727971642586</v>
+        <v>1.163211654731997</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.069451547175008</v>
+        <v>-0.3275757947997752</v>
       </c>
       <c r="F4">
-        <v>0.6069776315826171</v>
+        <v>0.9615981580533318</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.333475365443387</v>
+        <v>0.3586814045055944</v>
       </c>
       <c r="C5">
-        <v>-0.7990242062687005</v>
+        <v>1.073491607381698</v>
       </c>
       <c r="D5">
-        <v>-1.069451547175008</v>
+        <v>0.3275757947997752</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6587894715330183</v>
+        <v>0.9312396660682282</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.541853417208297</v>
+        <v>-0.9864908289099221</v>
       </c>
       <c r="C6">
-        <v>-0.1698651840618371</v>
+        <v>-0.5549805078135338</v>
       </c>
       <c r="D6">
-        <v>-0.6069776315826171</v>
+        <v>-0.9615981580533318</v>
       </c>
       <c r="E6">
-        <v>0.6587894715330183</v>
+        <v>-0.9312396660682282</v>
       </c>
       <c r="F6">
         <v>0</v>
